--- a/Data y gráficos/Gráficos de Tesis/Sin tendencia/Quitar tendencia 2.xlsx
+++ b/Data y gráficos/Gráficos de Tesis/Sin tendencia/Quitar tendencia 2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29016"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,7 +15,23 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -25,16 +41,16 @@
     <t>Fecha</t>
   </si>
   <si>
+    <t>USO</t>
+  </si>
+  <si>
+    <t>PROF</t>
+  </si>
+  <si>
     <t>ACCESO</t>
   </si>
   <si>
     <t>FINDEX</t>
-  </si>
-  <si>
-    <t>USO</t>
-  </si>
-  <si>
-    <t>PROF</t>
   </si>
 </sst>
 </file>
@@ -44,7 +60,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -409,29 +425,29 @@
       <selection activeCell="P65" sqref="P65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="2">
         <v>36981</v>
       </c>
@@ -448,7 +464,7 @@
         <v>4.6340733284069291E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="2">
         <v>37072</v>
       </c>
@@ -465,7 +481,7 @@
         <v>1.0794169882338941E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="2">
         <v>37164</v>
       </c>
@@ -482,7 +498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <v>37256</v>
       </c>
@@ -499,7 +515,7 @@
         <v>2.34414228706743E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
         <v>37346</v>
       </c>
@@ -516,7 +532,7 @@
         <v>5.4470444200808273E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <v>37437</v>
       </c>
@@ -533,7 +549,7 @@
         <v>0.1110928395266669</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" s="2">
         <v>37529</v>
       </c>
@@ -550,7 +566,7 @@
         <v>0.15687287414812451</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="2">
         <v>37621</v>
       </c>
@@ -567,7 +583,7 @@
         <v>0.18662402652256399</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" s="2">
         <v>37711</v>
       </c>
@@ -584,7 +600,7 @@
         <v>0.1886932863833832</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" s="2">
         <v>37802</v>
       </c>
@@ -601,7 +617,7 @@
         <v>0.21152940234442669</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="2">
         <v>37894</v>
       </c>
@@ -618,7 +634,7 @@
         <v>0.23099032581535639</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="2">
         <v>37986</v>
       </c>
@@ -635,7 +651,7 @@
         <v>0.27698466322460241</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" s="2">
         <v>38077</v>
       </c>
@@ -652,7 +668,7 @@
         <v>0.26317079665840781</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" s="2">
         <v>38168</v>
       </c>
@@ -669,7 +685,7 @@
         <v>0.26224691149174079</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="2">
         <v>38260</v>
       </c>
@@ -686,7 +702,7 @@
         <v>0.28571426046073078</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="2">
         <v>38352</v>
       </c>
@@ -703,7 +719,7 @@
         <v>0.32322564710767387</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="2">
         <v>38442</v>
       </c>
@@ -720,7 +736,7 @@
         <v>0.31391887871460672</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="2">
         <v>38533</v>
       </c>
@@ -737,7 +753,7 @@
         <v>0.32723342618372298</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" s="2">
         <v>38625</v>
       </c>
@@ -754,7 +770,7 @@
         <v>0.35335323680222658</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="2">
         <v>38717</v>
       </c>
@@ -771,7 +787,7 @@
         <v>0.39318359307538109</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" s="2">
         <v>38807</v>
       </c>
@@ -788,7 +804,7 @@
         <v>0.39153557530852462</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" s="2">
         <v>38898</v>
       </c>
@@ -805,7 +821,7 @@
         <v>0.3903975861481831</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24" s="2">
         <v>38990</v>
       </c>
@@ -822,7 +838,7 @@
         <v>0.40409324885692738</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" s="2">
         <v>39082</v>
       </c>
@@ -839,7 +855,7 @@
         <v>0.43756059065312541</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26" s="2">
         <v>39172</v>
       </c>
@@ -856,7 +872,7 @@
         <v>0.4476611155386942</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5">
       <c r="A27" s="2">
         <v>39263</v>
       </c>
@@ -873,7 +889,7 @@
         <v>0.46585306855927561</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5">
       <c r="A28" s="2">
         <v>39355</v>
       </c>
@@ -890,7 +906,7 @@
         <v>0.47837586833529039</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5">
       <c r="A29" s="2">
         <v>39447</v>
       </c>
@@ -907,7 +923,7 @@
         <v>0.51620292256134537</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5">
       <c r="A30" s="2">
         <v>39538</v>
       </c>
@@ -924,7 +940,7 @@
         <v>0.51715166996105877</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5">
       <c r="A31" s="2">
         <v>39629</v>
       </c>
@@ -941,7 +957,7 @@
         <v>0.5481801300304584</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5">
       <c r="A32" s="2">
         <v>39721</v>
       </c>
@@ -958,7 +974,7 @@
         <v>0.57355981035164527</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5">
       <c r="A33" s="2">
         <v>39813</v>
       </c>
@@ -975,7 +991,7 @@
         <v>0.60521219354669931</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5">
       <c r="A34" s="2">
         <v>39903</v>
       </c>
@@ -992,7 +1008,7 @@
         <v>0.60570050125349184</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5">
       <c r="A35" s="2">
         <v>39994</v>
       </c>
@@ -1009,7 +1025,7 @@
         <v>0.60808463905943311</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5">
       <c r="A36" s="2">
         <v>40086</v>
       </c>
@@ -1026,7 +1042,7 @@
         <v>0.61222600444288466</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5">
       <c r="A37" s="2">
         <v>40178</v>
       </c>
@@ -1043,7 +1059,7 @@
         <v>0.62711576486819165</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5">
       <c r="A38" s="2">
         <v>40268</v>
       </c>
@@ -1060,7 +1076,7 @@
         <v>0.6213555493661358</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5">
       <c r="A39" s="2">
         <v>40359</v>
       </c>
@@ -1077,7 +1093,7 @@
         <v>0.62631459881310214</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5">
       <c r="A40" s="2">
         <v>40451</v>
       </c>
@@ -1094,7 +1110,7 @@
         <v>0.58908262331858574</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5">
       <c r="A41" s="2">
         <v>40543</v>
       </c>
@@ -1111,7 +1127,7 @@
         <v>0.61224178243961991</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5">
       <c r="A42" s="2">
         <v>40633</v>
       </c>
@@ -1128,7 +1144,7 @@
         <v>0.61893900540008284</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5">
       <c r="A43" s="2">
         <v>40724</v>
       </c>
@@ -1145,7 +1161,7 @@
         <v>0.62558971402171915</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5">
       <c r="A44" s="2">
         <v>40816</v>
       </c>
@@ -1162,7 +1178,7 @@
         <v>0.63571668007329118</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5">
       <c r="A45" s="2">
         <v>40908</v>
       </c>
@@ -1179,7 +1195,7 @@
         <v>0.65942244969067776</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5">
       <c r="A46" s="2">
         <v>40999</v>
       </c>
@@ -1196,7 +1212,7 @@
         <v>0.6557459128336286</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5">
       <c r="A47" s="2">
         <v>41090</v>
       </c>
@@ -1213,7 +1229,7 @@
         <v>0.66708164795389502</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5">
       <c r="A48" s="2">
         <v>41182</v>
       </c>
@@ -1230,7 +1246,7 @@
         <v>0.66649161073959651</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5">
       <c r="A49" s="2">
         <v>41274</v>
       </c>
@@ -1247,7 +1263,7 @@
         <v>0.68771465727523262</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5">
       <c r="A50" s="2">
         <v>41364</v>
       </c>
@@ -1264,7 +1280,7 @@
         <v>0.67506881453509593</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5">
       <c r="A51" s="2">
         <v>41455</v>
       </c>
@@ -1281,7 +1297,7 @@
         <v>0.68034746702009041</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5">
       <c r="A52" s="2">
         <v>41547</v>
       </c>
@@ -1298,7 +1314,7 @@
         <v>0.68526745310817372</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5">
       <c r="A53" s="2">
         <v>41639</v>
       </c>
@@ -1315,7 +1331,7 @@
         <v>0.70007557018729782</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5">
       <c r="A54" s="2">
         <v>41729</v>
       </c>
@@ -1332,7 +1348,7 @@
         <v>0.69667501693609679</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5">
       <c r="A55" s="2">
         <v>41820</v>
       </c>
@@ -1349,7 +1365,7 @@
         <v>0.69929894948907889</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5">
       <c r="A56" s="2">
         <v>41912</v>
       </c>
@@ -1366,7 +1382,7 @@
         <v>0.70414810940740424</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5">
       <c r="A57" s="2">
         <v>42004</v>
       </c>
@@ -1383,7 +1399,7 @@
         <v>0.7255343086389745</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5">
       <c r="A58" s="2">
         <v>42094</v>
       </c>
@@ -1400,7 +1416,7 @@
         <v>0.72456421216499467</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5">
       <c r="A59" s="2">
         <v>42185</v>
       </c>
@@ -1417,7 +1433,7 @@
         <v>0.72409316728919926</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5">
       <c r="A60" s="2">
         <v>42277</v>
       </c>
@@ -1434,7 +1450,7 @@
         <v>0.74323739251339793</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5">
       <c r="A61" s="2">
         <v>42369</v>
       </c>
@@ -1451,7 +1467,7 @@
         <v>0.76095257920368198</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5">
       <c r="A62" s="2">
         <v>42460</v>
       </c>
@@ -1468,7 +1484,7 @@
         <v>0.74452177599603075</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5">
       <c r="A63" s="2">
         <v>42551</v>
       </c>
@@ -1485,7 +1501,7 @@
         <v>0.7481058640784144</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5">
       <c r="A64" s="2">
         <v>42643</v>
       </c>
@@ -1502,7 +1518,7 @@
         <v>0.74988283195299399</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5">
       <c r="A65" s="2">
         <v>42735</v>
       </c>
@@ -1519,7 +1535,7 @@
         <v>0.7660048791738816</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5">
       <c r="A66" s="2">
         <v>42825</v>
       </c>
@@ -1536,7 +1552,7 @@
         <v>0.75815838921863254</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5">
       <c r="A67" s="2">
         <v>42916</v>
       </c>
@@ -1553,7 +1569,7 @@
         <v>0.75606570032682829</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5">
       <c r="A68" s="2">
         <v>43008</v>
       </c>
@@ -1570,7 +1586,7 @@
         <v>0.76084347226281646</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5">
       <c r="A69" s="2">
         <v>43100</v>
       </c>
@@ -1587,7 +1603,7 @@
         <v>0.7766351080561511</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5">
       <c r="A70" s="2">
         <v>43190</v>
       </c>
@@ -1604,7 +1620,7 @@
         <v>0.76519363253814543</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5">
       <c r="A71" s="2">
         <v>43281</v>
       </c>
@@ -1621,7 +1637,7 @@
         <v>0.76741985722024786</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5">
       <c r="A72" s="2">
         <v>43373</v>
       </c>
@@ -1638,7 +1654,7 @@
         <v>0.77909884643972571</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5">
       <c r="A73" s="2">
         <v>43465</v>
       </c>
@@ -1655,7 +1671,7 @@
         <v>0.79546156621108366</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5">
       <c r="A74" s="2">
         <v>43555</v>
       </c>
@@ -1672,7 +1688,7 @@
         <v>0.80071971757206484</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5">
       <c r="A75" s="2">
         <v>43646</v>
       </c>
@@ -1689,7 +1705,7 @@
         <v>0.79980572535320671</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5">
       <c r="A76" s="2">
         <v>43738</v>
       </c>
@@ -1706,7 +1722,7 @@
         <v>0.80673493154596099</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5">
       <c r="A77" s="2">
         <v>43830</v>
       </c>
@@ -1723,7 +1739,7 @@
         <v>0.82763736269975341</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5">
       <c r="A78" s="2">
         <v>43921</v>
       </c>
@@ -1740,7 +1756,7 @@
         <v>0.85141426121938335</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5">
       <c r="A79" s="2">
         <v>44012</v>
       </c>
@@ -1757,7 +1773,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5">
       <c r="A80" s="2">
         <v>44104</v>
       </c>
@@ -1774,7 +1790,7 @@
         <v>0.87925536201133669</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5">
       <c r="A81" s="2">
         <v>44196</v>
       </c>
@@ -1791,7 +1807,7 @@
         <v>0.82751175951068945</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5">
       <c r="A82" s="2">
         <v>44286</v>
       </c>
@@ -1808,7 +1824,7 @@
         <v>0.80171794571619737</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5">
       <c r="A83" s="2">
         <v>44377</v>
       </c>
@@ -1825,7 +1841,7 @@
         <v>0.8192029707289068</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5">
       <c r="A84" s="2">
         <v>44469</v>
       </c>
@@ -1842,7 +1858,7 @@
         <v>0.85614982564442443</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5">
       <c r="A85" s="2">
         <v>44561</v>
       </c>
@@ -1859,7 +1875,7 @@
         <v>0.89233140879694095</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5">
       <c r="A86" s="2">
         <v>44651</v>
       </c>
@@ -1876,7 +1892,7 @@
         <v>0.88841906618652211</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5">
       <c r="A87" s="2">
         <v>44742</v>
       </c>
@@ -1893,7 +1909,7 @@
         <v>0.89365751407265925</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5">
       <c r="A88" s="2">
         <v>44834</v>
       </c>
